--- a/Gestion Stock 2025/Gestion de Stock Robeia/Fiche de Stock Robeia 2025.xlsx
+++ b/Gestion Stock 2025/Gestion de Stock Robeia/Fiche de Stock Robeia 2025.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="555" yWindow="75" windowWidth="11700" windowHeight="6825" activeTab="2"/>
+    <workbookView xWindow="555" yWindow="75" windowWidth="11700" windowHeight="6825" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="JANVIER 2025" sheetId="12" r:id="rId1"/>
     <sheet name="FEVRIER 2025" sheetId="13" r:id="rId2"/>
     <sheet name="MARS 2025" sheetId="14" r:id="rId3"/>
+    <sheet name="AVRIL 2025" sheetId="15" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="33">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -137,6 +138,9 @@
   </si>
   <si>
     <t>Mois de MARS 2025</t>
+  </si>
+  <si>
+    <t>Mois de AVRIL 2025</t>
   </si>
 </sst>
 </file>
@@ -825,7 +829,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1007,76 +1011,34 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="2" borderId="41" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1090,19 +1052,67 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="2" borderId="41" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1381,6 +1391,133 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000">
+          <a:off x="5610225" y="8353425"/>
+          <a:ext cx="958850" cy="1139825"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T1" fmla="*/ 0 h 21600"/>
+            <a:gd name="T2" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T3" fmla="*/ 2147483647 h 21600"/>
+            <a:gd name="T4" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T5" fmla="*/ 2147483647 h 21600"/>
+            <a:gd name="T6" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T7" fmla="*/ 2147483647 h 21600"/>
+            <a:gd name="T8" fmla="*/ 17694720 60000 65536"/>
+            <a:gd name="T9" fmla="*/ 5898240 60000 65536"/>
+            <a:gd name="T10" fmla="*/ 5898240 60000 65536"/>
+            <a:gd name="T11" fmla="*/ 0 60000 65536"/>
+            <a:gd name="T12" fmla="*/ 12427 w 21600"/>
+            <a:gd name="T13" fmla="*/ 2912 h 21600"/>
+            <a:gd name="T14" fmla="*/ 18227 w 21600"/>
+            <a:gd name="T15" fmla="*/ 9246 h 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="T8">
+              <a:pos x="T0" y="T1"/>
+            </a:cxn>
+            <a:cxn ang="T9">
+              <a:pos x="T2" y="T3"/>
+            </a:cxn>
+            <a:cxn ang="T10">
+              <a:pos x="T4" y="T5"/>
+            </a:cxn>
+            <a:cxn ang="T11">
+              <a:pos x="T6" y="T7"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="T12" t="T13" r="T14" b="T15"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="21600" y="6079"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="15126" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="15126" y="2912"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="12427" y="2912"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="5564" y="2912"/>
+                <a:pt x="0" y="7052"/>
+                <a:pt x="0" y="12158"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="0" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="6474" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="6474" y="12158"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="6474" y="10550"/>
+                <a:pt x="9139" y="9246"/>
+                <a:pt x="12427" y="9246"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="15126" y="9246"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="15126" y="12158"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="21600" y="6079"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1807,90 +1944,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="A1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="35"/>
       <c r="F1" s="36"/>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="35"/>
       <c r="F2" s="36"/>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="35"/>
       <c r="F3" s="36"/>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
     </row>
     <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1902,36 +2039,36 @@
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="12"/>
       <c r="K6" s="37"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="63" t="s">
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="64" t="s">
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="86" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
+      <c r="A8" s="81"/>
       <c r="B8" s="38" t="s">
         <v>11</v>
       </c>
@@ -1962,7 +2099,7 @@
       <c r="K8" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="65"/>
+      <c r="L8" s="87"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -2801,33 +2938,33 @@
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="66"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="67" t="s">
+      <c r="A42" s="69"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68" t="s">
+      <c r="H42" s="71"/>
+      <c r="I42" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="69"/>
+      <c r="J42" s="72"/>
       <c r="K42" s="11"/>
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
-      <c r="B43" s="70" t="s">
+      <c r="B43" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="72">
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="67">
         <v>0</v>
       </c>
       <c r="H43" s="73"/>
@@ -2838,112 +2975,1333 @@
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
-      <c r="B44" s="70" t="s">
+      <c r="B44" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="76">
-        <v>0</v>
-      </c>
-      <c r="H44" s="77"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="77"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="58">
+        <v>0</v>
+      </c>
+      <c r="H44" s="59"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="59"/>
       <c r="K44" s="11"/>
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="78" t="s">
+      <c r="B45" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="79">
-        <v>0</v>
-      </c>
-      <c r="H45" s="80"/>
-      <c r="I45" s="72"/>
-      <c r="J45" s="81"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="65">
+        <v>0</v>
+      </c>
+      <c r="H45" s="66"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="68"/>
       <c r="K45" s="11"/>
       <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
-      <c r="B46" s="70" t="s">
+      <c r="B46" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="82">
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="63">
         <f>L40+G45</f>
         <v>0</v>
       </c>
-      <c r="H46" s="77"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="77"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="59"/>
       <c r="K46" s="11"/>
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="70" t="s">
+      <c r="B47" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="82">
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="63">
         <f>G43+G44-G46</f>
         <v>0</v>
       </c>
-      <c r="H47" s="77"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="77"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="59"/>
       <c r="K47" s="11"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="70" t="s">
+      <c r="B48" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="76">
-        <v>0</v>
-      </c>
-      <c r="H48" s="77"/>
-      <c r="I48" s="76"/>
-      <c r="J48" s="77"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="58">
+        <v>0</v>
+      </c>
+      <c r="H48" s="59"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="59"/>
       <c r="K48" s="11"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="70" t="s">
+      <c r="B49" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="83">
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="60">
         <f>G47-G48</f>
         <v>0</v>
       </c>
-      <c r="H49" s="84"/>
-      <c r="I49" s="85"/>
-      <c r="J49" s="84"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="36"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" s="42"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="95" orientation="portrait" horizontalDpi="360" verticalDpi="180" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45:H45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="12" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+    </row>
+    <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="81"/>
+      <c r="B8" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="87"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="17">
+        <f>SUM(B9:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="46"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="15">
+        <f>SUM(G9:J9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <f>SUM(F9+K9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="17">
+        <f t="shared" ref="F10:F39" si="0">SUM(B10:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="15">
+        <f t="shared" ref="K10:K39" si="1">SUM(G10:J10)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <f t="shared" ref="L10:L39" si="2">SUM(F10+K10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>4</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>5</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>6</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>7</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>8</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>9</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>10</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>11</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>12</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>13</v>
+      </c>
+      <c r="B21" s="21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>14</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>15</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>16</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>17</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>18</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>19</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>20</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>21</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="30"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>22</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="30"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>23</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="30"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>24</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>25</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="30"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>26</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="30"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>27</v>
+      </c>
+      <c r="B35" s="44"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="45"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>28</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="30"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>29</v>
+      </c>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="30"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>30</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="30"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <v>31</v>
+      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="30"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="51">
+        <f>SUM(B9:B39)</f>
+        <v>1</v>
+      </c>
+      <c r="C40" s="51">
+        <f t="shared" ref="C40:E40" si="3">SUM(C9:C39)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="50">
+        <f>SUM(F9:F39)</f>
+        <v>1</v>
+      </c>
+      <c r="G40" s="16">
+        <f>SUM(G9:G39)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="16">
+        <f t="shared" ref="H40:L40" si="4">SUM(H9:H39)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="13"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="69"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="72"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="13"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
+      <c r="B43" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="67">
+        <v>0</v>
+      </c>
+      <c r="H43" s="73"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="13"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="58">
+        <v>1</v>
+      </c>
+      <c r="H44" s="59"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="13"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
+      <c r="B45" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="65">
+        <v>0</v>
+      </c>
+      <c r="H45" s="66"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="13"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="63">
+        <f>L40+G45</f>
+        <v>1</v>
+      </c>
+      <c r="H46" s="59"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="13"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="63">
+        <f>G43+G44-G46</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="59"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="58">
+        <v>0</v>
+      </c>
+      <c r="H48" s="59"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="60">
+        <f>G47-G48</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="61"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="61"/>
       <c r="K49" s="11"/>
       <c r="L49" s="3"/>
     </row>
@@ -3011,11 +4369,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="G45" sqref="G45:H45"/>
     </sheetView>
   </sheetViews>
@@ -3026,90 +4384,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="A1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="35"/>
       <c r="F1" s="36"/>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="35"/>
       <c r="F2" s="36"/>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="35"/>
       <c r="F3" s="36"/>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
+      <c r="A5" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
     </row>
     <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -3121,36 +4479,36 @@
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="12"/>
       <c r="K6" s="37"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="63" t="s">
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="64" t="s">
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="86" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
+      <c r="A8" s="81"/>
       <c r="B8" s="38" t="s">
         <v>11</v>
       </c>
@@ -3181,7 +4539,7 @@
       <c r="K8" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="65"/>
+      <c r="L8" s="87"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -3487,15 +4845,13 @@
       <c r="A21" s="8">
         <v>13</v>
       </c>
-      <c r="B21" s="21">
-        <v>1</v>
-      </c>
+      <c r="B21" s="21"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="23"/>
       <c r="F21" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="34"/>
       <c r="H21" s="22"/>
@@ -3507,7 +4863,7 @@
       </c>
       <c r="L21" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3962,25 +5318,25 @@
     </row>
     <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
-      <c r="B40" s="51">
+      <c r="B40" s="53">
         <f>SUM(B9:B39)</f>
-        <v>1</v>
-      </c>
-      <c r="C40" s="51">
+        <v>0</v>
+      </c>
+      <c r="C40" s="53">
         <f t="shared" ref="C40:E40" si="3">SUM(C9:C39)</f>
         <v>0</v>
       </c>
-      <c r="D40" s="51">
+      <c r="D40" s="53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E40" s="51">
+      <c r="E40" s="53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F40" s="50">
+      <c r="F40" s="52">
         <f>SUM(F9:F39)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="16">
         <f>SUM(G9:G39)</f>
@@ -4004,7 +5360,7 @@
       </c>
       <c r="L40" s="16">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4022,33 +5378,33 @@
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="66"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="67" t="s">
+      <c r="A42" s="69"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68" t="s">
+      <c r="H42" s="71"/>
+      <c r="I42" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="69"/>
+      <c r="J42" s="72"/>
       <c r="K42" s="11"/>
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
-      <c r="B43" s="70" t="s">
+      <c r="B43" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="72">
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="67">
         <v>0</v>
       </c>
       <c r="H43" s="73"/>
@@ -4059,112 +5415,112 @@
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
-      <c r="B44" s="70" t="s">
+      <c r="B44" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="76">
-        <v>1</v>
-      </c>
-      <c r="H44" s="77"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="77"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="58">
+        <v>0</v>
+      </c>
+      <c r="H44" s="59"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="59"/>
       <c r="K44" s="11"/>
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="78" t="s">
+      <c r="B45" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="79">
-        <v>0</v>
-      </c>
-      <c r="H45" s="80"/>
-      <c r="I45" s="72"/>
-      <c r="J45" s="81"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="65">
+        <v>0</v>
+      </c>
+      <c r="H45" s="66"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="68"/>
       <c r="K45" s="11"/>
       <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
-      <c r="B46" s="70" t="s">
+      <c r="B46" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="82">
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="63">
         <f>L40+G45</f>
-        <v>1</v>
-      </c>
-      <c r="H46" s="77"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="77"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="59"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="59"/>
       <c r="K46" s="11"/>
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="70" t="s">
+      <c r="B47" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="82">
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="63">
         <f>G43+G44-G46</f>
         <v>0</v>
       </c>
-      <c r="H47" s="77"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="77"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="59"/>
       <c r="K47" s="11"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="70" t="s">
+      <c r="B48" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="76">
-        <v>0</v>
-      </c>
-      <c r="H48" s="77"/>
-      <c r="I48" s="76"/>
-      <c r="J48" s="77"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="58">
+        <v>0</v>
+      </c>
+      <c r="H48" s="59"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="59"/>
       <c r="K48" s="11"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="70" t="s">
+      <c r="B49" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="83">
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="60">
         <f>G47-G48</f>
         <v>0</v>
       </c>
-      <c r="H49" s="84"/>
-      <c r="I49" s="85"/>
-      <c r="J49" s="84"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="61"/>
       <c r="K49" s="11"/>
       <c r="L49" s="3"/>
     </row>
@@ -4232,11 +5588,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="G45" sqref="G45:H45"/>
     </sheetView>
   </sheetViews>
@@ -4247,90 +5603,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="A1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="35"/>
       <c r="F1" s="36"/>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="35"/>
       <c r="F2" s="36"/>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="35"/>
       <c r="F3" s="36"/>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
+      <c r="A5" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
     </row>
     <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -4342,36 +5698,36 @@
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="12"/>
       <c r="K6" s="37"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="63" t="s">
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="64" t="s">
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="86" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
+      <c r="A8" s="81"/>
       <c r="B8" s="38" t="s">
         <v>11</v>
       </c>
@@ -4402,7 +5758,7 @@
       <c r="K8" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="65"/>
+      <c r="L8" s="87"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -4609,12 +5965,14 @@
         <v>9</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
+      <c r="C17" s="25">
+        <v>1</v>
+      </c>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
       <c r="F17" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="30"/>
       <c r="H17" s="22"/>
@@ -4626,7 +5984,7 @@
       </c>
       <c r="L17" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5181,25 +6539,25 @@
     </row>
     <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
-      <c r="B40" s="53">
+      <c r="B40" s="55">
         <f>SUM(B9:B39)</f>
         <v>0</v>
       </c>
-      <c r="C40" s="53">
+      <c r="C40" s="55">
         <f t="shared" ref="C40:E40" si="3">SUM(C9:C39)</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="53">
+        <v>1</v>
+      </c>
+      <c r="D40" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E40" s="53">
+      <c r="E40" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F40" s="52">
+      <c r="F40" s="54">
         <f>SUM(F9:F39)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="16">
         <f>SUM(G9:G39)</f>
@@ -5223,7 +6581,7 @@
       </c>
       <c r="L40" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5241,33 +6599,33 @@
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="66"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="67" t="s">
+      <c r="A42" s="69"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68" t="s">
+      <c r="H42" s="71"/>
+      <c r="I42" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="69"/>
+      <c r="J42" s="72"/>
       <c r="K42" s="11"/>
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
-      <c r="B43" s="70" t="s">
+      <c r="B43" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="72">
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="67">
         <v>0</v>
       </c>
       <c r="H43" s="73"/>
@@ -5278,112 +6636,112 @@
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
-      <c r="B44" s="70" t="s">
+      <c r="B44" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="76">
-        <v>0</v>
-      </c>
-      <c r="H44" s="77"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="77"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="58">
+        <v>1</v>
+      </c>
+      <c r="H44" s="59"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="59"/>
       <c r="K44" s="11"/>
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="78" t="s">
+      <c r="B45" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="79">
-        <v>0</v>
-      </c>
-      <c r="H45" s="80"/>
-      <c r="I45" s="72"/>
-      <c r="J45" s="81"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="65">
+        <v>0</v>
+      </c>
+      <c r="H45" s="66"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="68"/>
       <c r="K45" s="11"/>
       <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
-      <c r="B46" s="70" t="s">
+      <c r="B46" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="82">
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="63">
         <f>L40+G45</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="77"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="77"/>
+        <v>1</v>
+      </c>
+      <c r="H46" s="59"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="59"/>
       <c r="K46" s="11"/>
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="70" t="s">
+      <c r="B47" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="82">
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="63">
         <f>G43+G44-G46</f>
         <v>0</v>
       </c>
-      <c r="H47" s="77"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="77"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="59"/>
       <c r="K47" s="11"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="70" t="s">
+      <c r="B48" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="76">
-        <v>0</v>
-      </c>
-      <c r="H48" s="77"/>
-      <c r="I48" s="76"/>
-      <c r="J48" s="77"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="58">
+        <v>0</v>
+      </c>
+      <c r="H48" s="59"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="59"/>
       <c r="K48" s="11"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="70" t="s">
+      <c r="B49" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="83">
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="60">
         <f>G47-G48</f>
         <v>0</v>
       </c>
-      <c r="H49" s="84"/>
-      <c r="I49" s="85"/>
-      <c r="J49" s="84"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="61"/>
       <c r="K49" s="11"/>
       <c r="L49" s="3"/>
     </row>

--- a/Gestion Stock 2025/Gestion de Stock Robeia/Fiche de Stock Robeia 2025.xlsx
+++ b/Gestion Stock 2025/Gestion de Stock Robeia/Fiche de Stock Robeia 2025.xlsx
@@ -9,20 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="555" yWindow="75" windowWidth="11700" windowHeight="6825" activeTab="3"/>
+    <workbookView xWindow="555" yWindow="75" windowWidth="11700" windowHeight="6825" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="JANVIER 2025" sheetId="12" r:id="rId1"/>
     <sheet name="FEVRIER 2025" sheetId="13" r:id="rId2"/>
     <sheet name="MARS 2025" sheetId="14" r:id="rId3"/>
     <sheet name="AVRIL 2025" sheetId="15" r:id="rId4"/>
+    <sheet name="MAI 2025" sheetId="16" r:id="rId5"/>
+    <sheet name="JUIN 2025" sheetId="17" r:id="rId6"/>
+    <sheet name="JUILLET 2025" sheetId="18" r:id="rId7"/>
+    <sheet name="AOUT 2025" sheetId="19" r:id="rId8"/>
+    <sheet name="SEPTEMBRE 2025" sheetId="20" r:id="rId9"/>
+    <sheet name="OCTOBRE 2025" sheetId="21" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="39">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -141,6 +147,24 @@
   </si>
   <si>
     <t>Mois de AVRIL 2025</t>
+  </si>
+  <si>
+    <t>Mois de MAI 2025</t>
+  </si>
+  <si>
+    <t>Mois de JUIN 2025</t>
+  </si>
+  <si>
+    <t>Mois de JUILLET 2025</t>
+  </si>
+  <si>
+    <t>Mois de AOUT 2025</t>
+  </si>
+  <si>
+    <t>Mois de SEPTEMBRE 2025</t>
+  </si>
+  <si>
+    <t>Mois de OCTOBRE 2025</t>
   </si>
 </sst>
 </file>
@@ -829,7 +853,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1017,6 +1041,42 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1137,6 +1197,133 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000">
+          <a:off x="5610225" y="8353425"/>
+          <a:ext cx="958850" cy="1139825"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T1" fmla="*/ 0 h 21600"/>
+            <a:gd name="T2" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T3" fmla="*/ 2147483647 h 21600"/>
+            <a:gd name="T4" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T5" fmla="*/ 2147483647 h 21600"/>
+            <a:gd name="T6" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T7" fmla="*/ 2147483647 h 21600"/>
+            <a:gd name="T8" fmla="*/ 17694720 60000 65536"/>
+            <a:gd name="T9" fmla="*/ 5898240 60000 65536"/>
+            <a:gd name="T10" fmla="*/ 5898240 60000 65536"/>
+            <a:gd name="T11" fmla="*/ 0 60000 65536"/>
+            <a:gd name="T12" fmla="*/ 12427 w 21600"/>
+            <a:gd name="T13" fmla="*/ 2912 h 21600"/>
+            <a:gd name="T14" fmla="*/ 18227 w 21600"/>
+            <a:gd name="T15" fmla="*/ 9246 h 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="T8">
+              <a:pos x="T0" y="T1"/>
+            </a:cxn>
+            <a:cxn ang="T9">
+              <a:pos x="T2" y="T3"/>
+            </a:cxn>
+            <a:cxn ang="T10">
+              <a:pos x="T4" y="T5"/>
+            </a:cxn>
+            <a:cxn ang="T11">
+              <a:pos x="T6" y="T7"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="T12" t="T13" r="T14" b="T15"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="21600" y="6079"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="15126" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="15126" y="2912"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="12427" y="2912"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="5564" y="2912"/>
+                <a:pt x="0" y="7052"/>
+                <a:pt x="0" y="12158"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="0" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="6474" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="6474" y="12158"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="6474" y="10550"/>
+                <a:pt x="9139" y="9246"/>
+                <a:pt x="12427" y="9246"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="15126" y="9246"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="15126" y="12158"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="21600" y="6079"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1644,6 +1831,641 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000">
+          <a:off x="5610225" y="8353425"/>
+          <a:ext cx="958850" cy="1139825"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T1" fmla="*/ 0 h 21600"/>
+            <a:gd name="T2" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T3" fmla="*/ 2147483647 h 21600"/>
+            <a:gd name="T4" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T5" fmla="*/ 2147483647 h 21600"/>
+            <a:gd name="T6" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T7" fmla="*/ 2147483647 h 21600"/>
+            <a:gd name="T8" fmla="*/ 17694720 60000 65536"/>
+            <a:gd name="T9" fmla="*/ 5898240 60000 65536"/>
+            <a:gd name="T10" fmla="*/ 5898240 60000 65536"/>
+            <a:gd name="T11" fmla="*/ 0 60000 65536"/>
+            <a:gd name="T12" fmla="*/ 12427 w 21600"/>
+            <a:gd name="T13" fmla="*/ 2912 h 21600"/>
+            <a:gd name="T14" fmla="*/ 18227 w 21600"/>
+            <a:gd name="T15" fmla="*/ 9246 h 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="T8">
+              <a:pos x="T0" y="T1"/>
+            </a:cxn>
+            <a:cxn ang="T9">
+              <a:pos x="T2" y="T3"/>
+            </a:cxn>
+            <a:cxn ang="T10">
+              <a:pos x="T4" y="T5"/>
+            </a:cxn>
+            <a:cxn ang="T11">
+              <a:pos x="T6" y="T7"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="T12" t="T13" r="T14" b="T15"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="21600" y="6079"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="15126" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="15126" y="2912"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="12427" y="2912"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="5564" y="2912"/>
+                <a:pt x="0" y="7052"/>
+                <a:pt x="0" y="12158"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="0" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="6474" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="6474" y="12158"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="6474" y="10550"/>
+                <a:pt x="9139" y="9246"/>
+                <a:pt x="12427" y="9246"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="15126" y="9246"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="15126" y="12158"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="21600" y="6079"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000">
+          <a:off x="5610225" y="8353425"/>
+          <a:ext cx="958850" cy="1139825"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T1" fmla="*/ 0 h 21600"/>
+            <a:gd name="T2" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T3" fmla="*/ 2147483647 h 21600"/>
+            <a:gd name="T4" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T5" fmla="*/ 2147483647 h 21600"/>
+            <a:gd name="T6" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T7" fmla="*/ 2147483647 h 21600"/>
+            <a:gd name="T8" fmla="*/ 17694720 60000 65536"/>
+            <a:gd name="T9" fmla="*/ 5898240 60000 65536"/>
+            <a:gd name="T10" fmla="*/ 5898240 60000 65536"/>
+            <a:gd name="T11" fmla="*/ 0 60000 65536"/>
+            <a:gd name="T12" fmla="*/ 12427 w 21600"/>
+            <a:gd name="T13" fmla="*/ 2912 h 21600"/>
+            <a:gd name="T14" fmla="*/ 18227 w 21600"/>
+            <a:gd name="T15" fmla="*/ 9246 h 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="T8">
+              <a:pos x="T0" y="T1"/>
+            </a:cxn>
+            <a:cxn ang="T9">
+              <a:pos x="T2" y="T3"/>
+            </a:cxn>
+            <a:cxn ang="T10">
+              <a:pos x="T4" y="T5"/>
+            </a:cxn>
+            <a:cxn ang="T11">
+              <a:pos x="T6" y="T7"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="T12" t="T13" r="T14" b="T15"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="21600" y="6079"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="15126" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="15126" y="2912"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="12427" y="2912"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="5564" y="2912"/>
+                <a:pt x="0" y="7052"/>
+                <a:pt x="0" y="12158"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="0" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="6474" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="6474" y="12158"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="6474" y="10550"/>
+                <a:pt x="9139" y="9246"/>
+                <a:pt x="12427" y="9246"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="15126" y="9246"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="15126" y="12158"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="21600" y="6079"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000">
+          <a:off x="5610225" y="8353425"/>
+          <a:ext cx="958850" cy="1139825"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T1" fmla="*/ 0 h 21600"/>
+            <a:gd name="T2" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T3" fmla="*/ 2147483647 h 21600"/>
+            <a:gd name="T4" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T5" fmla="*/ 2147483647 h 21600"/>
+            <a:gd name="T6" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T7" fmla="*/ 2147483647 h 21600"/>
+            <a:gd name="T8" fmla="*/ 17694720 60000 65536"/>
+            <a:gd name="T9" fmla="*/ 5898240 60000 65536"/>
+            <a:gd name="T10" fmla="*/ 5898240 60000 65536"/>
+            <a:gd name="T11" fmla="*/ 0 60000 65536"/>
+            <a:gd name="T12" fmla="*/ 12427 w 21600"/>
+            <a:gd name="T13" fmla="*/ 2912 h 21600"/>
+            <a:gd name="T14" fmla="*/ 18227 w 21600"/>
+            <a:gd name="T15" fmla="*/ 9246 h 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="T8">
+              <a:pos x="T0" y="T1"/>
+            </a:cxn>
+            <a:cxn ang="T9">
+              <a:pos x="T2" y="T3"/>
+            </a:cxn>
+            <a:cxn ang="T10">
+              <a:pos x="T4" y="T5"/>
+            </a:cxn>
+            <a:cxn ang="T11">
+              <a:pos x="T6" y="T7"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="T12" t="T13" r="T14" b="T15"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="21600" y="6079"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="15126" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="15126" y="2912"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="12427" y="2912"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="5564" y="2912"/>
+                <a:pt x="0" y="7052"/>
+                <a:pt x="0" y="12158"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="0" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="6474" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="6474" y="12158"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="6474" y="10550"/>
+                <a:pt x="9139" y="9246"/>
+                <a:pt x="12427" y="9246"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="15126" y="9246"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="15126" y="12158"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="21600" y="6079"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000">
+          <a:off x="5610225" y="8353425"/>
+          <a:ext cx="958850" cy="1139825"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T1" fmla="*/ 0 h 21600"/>
+            <a:gd name="T2" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T3" fmla="*/ 2147483647 h 21600"/>
+            <a:gd name="T4" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T5" fmla="*/ 2147483647 h 21600"/>
+            <a:gd name="T6" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T7" fmla="*/ 2147483647 h 21600"/>
+            <a:gd name="T8" fmla="*/ 17694720 60000 65536"/>
+            <a:gd name="T9" fmla="*/ 5898240 60000 65536"/>
+            <a:gd name="T10" fmla="*/ 5898240 60000 65536"/>
+            <a:gd name="T11" fmla="*/ 0 60000 65536"/>
+            <a:gd name="T12" fmla="*/ 12427 w 21600"/>
+            <a:gd name="T13" fmla="*/ 2912 h 21600"/>
+            <a:gd name="T14" fmla="*/ 18227 w 21600"/>
+            <a:gd name="T15" fmla="*/ 9246 h 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="T8">
+              <a:pos x="T0" y="T1"/>
+            </a:cxn>
+            <a:cxn ang="T9">
+              <a:pos x="T2" y="T3"/>
+            </a:cxn>
+            <a:cxn ang="T10">
+              <a:pos x="T4" y="T5"/>
+            </a:cxn>
+            <a:cxn ang="T11">
+              <a:pos x="T6" y="T7"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="T12" t="T13" r="T14" b="T15"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="21600" y="6079"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="15126" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="15126" y="2912"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="12427" y="2912"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="5564" y="2912"/>
+                <a:pt x="0" y="7052"/>
+                <a:pt x="0" y="12158"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="0" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="6474" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="6474" y="12158"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="6474" y="10550"/>
+                <a:pt x="9139" y="9246"/>
+                <a:pt x="12427" y="9246"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="15126" y="9246"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="15126" y="12158"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="21600" y="6079"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000">
+          <a:off x="5610225" y="8353425"/>
+          <a:ext cx="958850" cy="1139825"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T1" fmla="*/ 0 h 21600"/>
+            <a:gd name="T2" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T3" fmla="*/ 2147483647 h 21600"/>
+            <a:gd name="T4" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T5" fmla="*/ 2147483647 h 21600"/>
+            <a:gd name="T6" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T7" fmla="*/ 2147483647 h 21600"/>
+            <a:gd name="T8" fmla="*/ 17694720 60000 65536"/>
+            <a:gd name="T9" fmla="*/ 5898240 60000 65536"/>
+            <a:gd name="T10" fmla="*/ 5898240 60000 65536"/>
+            <a:gd name="T11" fmla="*/ 0 60000 65536"/>
+            <a:gd name="T12" fmla="*/ 12427 w 21600"/>
+            <a:gd name="T13" fmla="*/ 2912 h 21600"/>
+            <a:gd name="T14" fmla="*/ 18227 w 21600"/>
+            <a:gd name="T15" fmla="*/ 9246 h 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="T8">
+              <a:pos x="T0" y="T1"/>
+            </a:cxn>
+            <a:cxn ang="T9">
+              <a:pos x="T2" y="T3"/>
+            </a:cxn>
+            <a:cxn ang="T10">
+              <a:pos x="T4" y="T5"/>
+            </a:cxn>
+            <a:cxn ang="T11">
+              <a:pos x="T6" y="T7"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="T12" t="T13" r="T14" b="T15"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="21600" y="6079"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="15126" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="15126" y="2912"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="12427" y="2912"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="5564" y="2912"/>
+                <a:pt x="0" y="7052"/>
+                <a:pt x="0" y="12158"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="0" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="6474" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="6474" y="12158"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="6474" y="10550"/>
+                <a:pt x="9139" y="9246"/>
+                <a:pt x="12427" y="9246"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="15126" y="9246"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="15126" y="12158"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="21600" y="6079"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -1944,90 +2766,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
       <c r="E1" s="35"/>
       <c r="F1" s="36"/>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
       <c r="E2" s="35"/>
       <c r="F2" s="36"/>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
       <c r="E3" s="35"/>
       <c r="F3" s="36"/>
-      <c r="G3" s="78" t="s">
+      <c r="G3" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
     </row>
     <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -2039,36 +2861,36 @@
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
       <c r="J6" s="12"/>
       <c r="K6" s="37"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="85" t="s">
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="86" t="s">
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="98" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="81"/>
+      <c r="A8" s="93"/>
       <c r="B8" s="38" t="s">
         <v>11</v>
       </c>
@@ -2099,7 +2921,7 @@
       <c r="K8" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="87"/>
+      <c r="L8" s="99"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -2938,149 +3760,149 @@
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="69"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="70" t="s">
+      <c r="A42" s="81"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71" t="s">
+      <c r="H42" s="83"/>
+      <c r="I42" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="72"/>
+      <c r="J42" s="84"/>
       <c r="K42" s="11"/>
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="67">
-        <v>0</v>
-      </c>
-      <c r="H43" s="73"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="75"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="79">
+        <v>0</v>
+      </c>
+      <c r="H43" s="85"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="87"/>
       <c r="K43" s="11"/>
       <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="58">
-        <v>0</v>
-      </c>
-      <c r="H44" s="59"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="59"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="70">
+        <v>0</v>
+      </c>
+      <c r="H44" s="71"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="71"/>
       <c r="K44" s="11"/>
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="65">
-        <v>0</v>
-      </c>
-      <c r="H45" s="66"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="68"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="77">
+        <v>0</v>
+      </c>
+      <c r="H45" s="78"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="80"/>
       <c r="K45" s="11"/>
       <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="63">
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="75">
         <f>L40+G45</f>
         <v>0</v>
       </c>
-      <c r="H46" s="59"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="59"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="71"/>
       <c r="K46" s="11"/>
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="63">
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="75">
         <f>G43+G44-G46</f>
         <v>0</v>
       </c>
-      <c r="H47" s="59"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="59"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="71"/>
       <c r="K47" s="11"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="58">
-        <v>0</v>
-      </c>
-      <c r="H48" s="59"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="59"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="70">
+        <v>0</v>
+      </c>
+      <c r="H48" s="71"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="71"/>
       <c r="K48" s="11"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="60">
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="72">
         <f>G47-G48</f>
         <v>0</v>
       </c>
-      <c r="H49" s="61"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="61"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="73"/>
       <c r="K49" s="11"/>
       <c r="L49" s="3"/>
     </row>
@@ -3148,6 +3970,1227 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="12" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+    </row>
+    <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="93"/>
+      <c r="B8" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="99"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="17">
+        <f>SUM(B9:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="46"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="15">
+        <f>SUM(G9:J9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <f>SUM(F9+K9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="17">
+        <f t="shared" ref="F10:F39" si="0">SUM(B10:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="15">
+        <f t="shared" ref="K10:K39" si="1">SUM(G10:J10)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <f t="shared" ref="L10:L39" si="2">SUM(F10+K10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>4</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>5</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>6</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>7</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="30">
+        <v>1</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>8</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>9</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>10</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>11</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>12</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>13</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>14</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>15</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>16</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>17</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>18</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>19</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>20</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>21</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="30"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>22</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="30"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>23</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="30"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>24</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>25</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="30"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>26</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="30"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>27</v>
+      </c>
+      <c r="B35" s="44"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="45"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>28</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="30"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>29</v>
+      </c>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="30"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>30</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="30"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <v>31</v>
+      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="30"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="67">
+        <f>SUM(B9:B39)</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="67">
+        <f t="shared" ref="C40:E40" si="3">SUM(C9:C39)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="66">
+        <f>SUM(F9:F39)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="16">
+        <f>SUM(G9:G39)</f>
+        <v>1</v>
+      </c>
+      <c r="H40" s="16">
+        <f t="shared" ref="H40:L40" si="4">SUM(H9:H39)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L40" s="16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="13"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="81"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="84"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="13"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
+      <c r="B43" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="79">
+        <v>0</v>
+      </c>
+      <c r="H43" s="85"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="13"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="70">
+        <v>1</v>
+      </c>
+      <c r="H44" s="71"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="13"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
+      <c r="B45" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="77">
+        <v>0</v>
+      </c>
+      <c r="H45" s="78"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="13"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="75">
+        <f>L40+G45</f>
+        <v>1</v>
+      </c>
+      <c r="H46" s="71"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="13"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="75">
+        <f>G43+G44-G46</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="71"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="70">
+        <v>0</v>
+      </c>
+      <c r="H48" s="71"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="72">
+        <f>G47-G48</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="73"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="36"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" s="42"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="G3:L3"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="95" orientation="portrait" horizontalDpi="360" verticalDpi="180" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L50"/>
@@ -3163,90 +5206,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
       <c r="E1" s="35"/>
       <c r="F1" s="36"/>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
       <c r="E2" s="35"/>
       <c r="F2" s="36"/>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
       <c r="E3" s="35"/>
       <c r="F3" s="36"/>
-      <c r="G3" s="78" t="s">
+      <c r="G3" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
     </row>
     <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -3258,36 +5301,36 @@
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
       <c r="J6" s="12"/>
       <c r="K6" s="37"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="85" t="s">
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="86" t="s">
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="98" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="81"/>
+      <c r="A8" s="93"/>
       <c r="B8" s="38" t="s">
         <v>11</v>
       </c>
@@ -3318,7 +5361,7 @@
       <c r="K8" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="87"/>
+      <c r="L8" s="99"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -4159,149 +6202,149 @@
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="69"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="70" t="s">
+      <c r="A42" s="81"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71" t="s">
+      <c r="H42" s="83"/>
+      <c r="I42" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="72"/>
+      <c r="J42" s="84"/>
       <c r="K42" s="11"/>
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="67">
-        <v>0</v>
-      </c>
-      <c r="H43" s="73"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="75"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="79">
+        <v>0</v>
+      </c>
+      <c r="H43" s="85"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="87"/>
       <c r="K43" s="11"/>
       <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="58">
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="70">
         <v>1</v>
       </c>
-      <c r="H44" s="59"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="59"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="71"/>
       <c r="K44" s="11"/>
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="65">
-        <v>0</v>
-      </c>
-      <c r="H45" s="66"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="68"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="77">
+        <v>0</v>
+      </c>
+      <c r="H45" s="78"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="80"/>
       <c r="K45" s="11"/>
       <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="63">
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="75">
         <f>L40+G45</f>
         <v>1</v>
       </c>
-      <c r="H46" s="59"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="59"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="71"/>
       <c r="K46" s="11"/>
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="63">
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="75">
         <f>G43+G44-G46</f>
         <v>0</v>
       </c>
-      <c r="H47" s="59"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="59"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="71"/>
       <c r="K47" s="11"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="58">
-        <v>0</v>
-      </c>
-      <c r="H48" s="59"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="59"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="70">
+        <v>0</v>
+      </c>
+      <c r="H48" s="71"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="71"/>
       <c r="K48" s="11"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="60">
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="72">
         <f>G47-G48</f>
         <v>0</v>
       </c>
-      <c r="H49" s="61"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="61"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="73"/>
       <c r="K49" s="11"/>
       <c r="L49" s="3"/>
     </row>
@@ -4384,90 +6427,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
       <c r="E1" s="35"/>
       <c r="F1" s="36"/>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
       <c r="E2" s="35"/>
       <c r="F2" s="36"/>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
       <c r="E3" s="35"/>
       <c r="F3" s="36"/>
-      <c r="G3" s="78" t="s">
+      <c r="G3" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
     </row>
     <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -4479,36 +6522,36 @@
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
       <c r="J6" s="12"/>
       <c r="K6" s="37"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="85" t="s">
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="86" t="s">
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="98" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="81"/>
+      <c r="A8" s="93"/>
       <c r="B8" s="38" t="s">
         <v>11</v>
       </c>
@@ -4539,7 +6582,7 @@
       <c r="K8" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="87"/>
+      <c r="L8" s="99"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -5378,149 +7421,149 @@
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="69"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="70" t="s">
+      <c r="A42" s="81"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71" t="s">
+      <c r="H42" s="83"/>
+      <c r="I42" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="72"/>
+      <c r="J42" s="84"/>
       <c r="K42" s="11"/>
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="67">
-        <v>0</v>
-      </c>
-      <c r="H43" s="73"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="75"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="79">
+        <v>0</v>
+      </c>
+      <c r="H43" s="85"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="87"/>
       <c r="K43" s="11"/>
       <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="58">
-        <v>0</v>
-      </c>
-      <c r="H44" s="59"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="59"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="70">
+        <v>0</v>
+      </c>
+      <c r="H44" s="71"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="71"/>
       <c r="K44" s="11"/>
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="65">
-        <v>0</v>
-      </c>
-      <c r="H45" s="66"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="68"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="77">
+        <v>0</v>
+      </c>
+      <c r="H45" s="78"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="80"/>
       <c r="K45" s="11"/>
       <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="63">
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="75">
         <f>L40+G45</f>
         <v>0</v>
       </c>
-      <c r="H46" s="59"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="59"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="71"/>
       <c r="K46" s="11"/>
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="63">
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="75">
         <f>G43+G44-G46</f>
         <v>0</v>
       </c>
-      <c r="H47" s="59"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="59"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="71"/>
       <c r="K47" s="11"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="58">
-        <v>0</v>
-      </c>
-      <c r="H48" s="59"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="59"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="70">
+        <v>0</v>
+      </c>
+      <c r="H48" s="71"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="71"/>
       <c r="K48" s="11"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="60">
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="72">
         <f>G47-G48</f>
         <v>0</v>
       </c>
-      <c r="H49" s="61"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="61"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="73"/>
       <c r="K49" s="11"/>
       <c r="L49" s="3"/>
     </row>
@@ -5592,7 +7635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="G45" sqref="G45:H45"/>
     </sheetView>
   </sheetViews>
@@ -5603,90 +7646,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
       <c r="E1" s="35"/>
       <c r="F1" s="36"/>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
       <c r="E2" s="35"/>
       <c r="F2" s="36"/>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
       <c r="E3" s="35"/>
       <c r="F3" s="36"/>
-      <c r="G3" s="78" t="s">
+      <c r="G3" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
     </row>
     <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -5698,36 +7741,36 @@
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
       <c r="J6" s="12"/>
       <c r="K6" s="37"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="85" t="s">
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="86" t="s">
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="98" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="81"/>
+      <c r="A8" s="93"/>
       <c r="B8" s="38" t="s">
         <v>11</v>
       </c>
@@ -5758,7 +7801,7 @@
       <c r="K8" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="87"/>
+      <c r="L8" s="99"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -6599,149 +8642,149 @@
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="69"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="70" t="s">
+      <c r="A42" s="81"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71" t="s">
+      <c r="H42" s="83"/>
+      <c r="I42" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="72"/>
+      <c r="J42" s="84"/>
       <c r="K42" s="11"/>
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="67">
-        <v>0</v>
-      </c>
-      <c r="H43" s="73"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="75"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="79">
+        <v>0</v>
+      </c>
+      <c r="H43" s="85"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="87"/>
       <c r="K43" s="11"/>
       <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="58">
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="70">
         <v>1</v>
       </c>
-      <c r="H44" s="59"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="59"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="71"/>
       <c r="K44" s="11"/>
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="65">
-        <v>0</v>
-      </c>
-      <c r="H45" s="66"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="68"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="77">
+        <v>0</v>
+      </c>
+      <c r="H45" s="78"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="80"/>
       <c r="K45" s="11"/>
       <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="63">
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="75">
         <f>L40+G45</f>
         <v>1</v>
       </c>
-      <c r="H46" s="59"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="59"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="71"/>
       <c r="K46" s="11"/>
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="63">
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="75">
         <f>G43+G44-G46</f>
         <v>0</v>
       </c>
-      <c r="H47" s="59"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="59"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="71"/>
       <c r="K47" s="11"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="58">
-        <v>0</v>
-      </c>
-      <c r="H48" s="59"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="59"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="70">
+        <v>0</v>
+      </c>
+      <c r="H48" s="71"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="71"/>
       <c r="K48" s="11"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="60">
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="72">
         <f>G47-G48</f>
         <v>0</v>
       </c>
-      <c r="H49" s="61"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="61"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="73"/>
       <c r="K49" s="11"/>
       <c r="L49" s="3"/>
     </row>
@@ -6807,4 +8850,6111 @@
   <pageSetup scale="95" orientation="portrait" horizontalDpi="360" verticalDpi="180" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45:H45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="12" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+    </row>
+    <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="93"/>
+      <c r="B8" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="99"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="17">
+        <f>SUM(B9:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="46"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="15">
+        <f>SUM(G9:J9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <f>SUM(F9+K9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="17">
+        <f t="shared" ref="F10:F39" si="0">SUM(B10:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="15">
+        <f t="shared" ref="K10:K39" si="1">SUM(G10:J10)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <f t="shared" ref="L10:L39" si="2">SUM(F10+K10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>4</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>5</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>6</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>7</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>8</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>9</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>10</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>11</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>12</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>13</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>14</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>15</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>16</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>17</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>18</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>19</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>20</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>21</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="30"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>22</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="30"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>23</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="30"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>24</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>25</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="30"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>26</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="30"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>27</v>
+      </c>
+      <c r="B35" s="44"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="45"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>28</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="30"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>29</v>
+      </c>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="30"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>30</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="30"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <v>31</v>
+      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="30"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="57">
+        <f>SUM(B9:B39)</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="57">
+        <f t="shared" ref="C40:E40" si="3">SUM(C9:C39)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="56">
+        <f>SUM(F9:F39)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="16">
+        <f>SUM(G9:G39)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="16">
+        <f t="shared" ref="H40:L40" si="4">SUM(H9:H39)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="13"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="81"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="84"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="13"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
+      <c r="B43" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="79">
+        <v>0</v>
+      </c>
+      <c r="H43" s="85"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="13"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="70">
+        <v>0</v>
+      </c>
+      <c r="H44" s="71"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="13"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
+      <c r="B45" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="77">
+        <v>0</v>
+      </c>
+      <c r="H45" s="78"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="13"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="75">
+        <f>L40+G45</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="71"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="13"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="75">
+        <f>G43+G44-G46</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="71"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="70">
+        <v>0</v>
+      </c>
+      <c r="H48" s="71"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="72">
+        <f>G47-G48</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="73"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="36"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" s="42"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="95" orientation="portrait" horizontalDpi="360" verticalDpi="180" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45:H45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="12" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+    </row>
+    <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="93"/>
+      <c r="B8" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="99"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="17">
+        <f>SUM(B9:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="46"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="15">
+        <f>SUM(G9:J9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <f>SUM(F9+K9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="17">
+        <f t="shared" ref="F10:F39" si="0">SUM(B10:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="15">
+        <f t="shared" ref="K10:K39" si="1">SUM(G10:J10)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <f t="shared" ref="L10:L39" si="2">SUM(F10+K10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>4</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>5</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>6</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>7</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>8</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>9</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>10</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>11</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>12</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>13</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>14</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>15</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>16</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>17</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>18</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>19</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>20</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>21</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="30"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>22</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="30"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>23</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="30"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>24</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>25</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="30"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>26</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="30"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>27</v>
+      </c>
+      <c r="B35" s="44"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="45"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>28</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="30"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>29</v>
+      </c>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="30"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>30</v>
+      </c>
+      <c r="B38" s="21">
+        <v>1</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G38" s="30"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <v>31</v>
+      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="30"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="59">
+        <f>SUM(B9:B39)</f>
+        <v>1</v>
+      </c>
+      <c r="C40" s="59">
+        <f t="shared" ref="C40:E40" si="3">SUM(C9:C39)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="58">
+        <f>SUM(F9:F39)</f>
+        <v>1</v>
+      </c>
+      <c r="G40" s="16">
+        <f>SUM(G9:G39)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="16">
+        <f t="shared" ref="H40:L40" si="4">SUM(H9:H39)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="13"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="81"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="84"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="13"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
+      <c r="B43" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="79">
+        <v>0</v>
+      </c>
+      <c r="H43" s="85"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="13"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="70">
+        <v>1</v>
+      </c>
+      <c r="H44" s="71"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="13"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
+      <c r="B45" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="77">
+        <v>0</v>
+      </c>
+      <c r="H45" s="78"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="13"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="75">
+        <f>L40+G45</f>
+        <v>1</v>
+      </c>
+      <c r="H46" s="71"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="13"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="75">
+        <f>G43+G44-G46</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="71"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="70">
+        <v>0</v>
+      </c>
+      <c r="H48" s="71"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="72">
+        <f>G47-G48</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="73"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="36"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" s="42"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="G3:L3"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="95" orientation="portrait" horizontalDpi="360" verticalDpi="180" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="12" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+    </row>
+    <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="93"/>
+      <c r="B8" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="99"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="17">
+        <f>SUM(B9:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="46"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="15">
+        <f>SUM(G9:J9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <f>SUM(F9+K9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="17">
+        <f t="shared" ref="F10:F39" si="0">SUM(B10:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="15">
+        <f t="shared" ref="K10:K39" si="1">SUM(G10:J10)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <f t="shared" ref="L10:L39" si="2">SUM(F10+K10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>4</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>5</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>6</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>7</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>8</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>9</v>
+      </c>
+      <c r="B17" s="21">
+        <v>1</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>10</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>11</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>12</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>13</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>14</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>15</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>16</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>17</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>18</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>19</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>20</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>21</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="30"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>22</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="30"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>23</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="30"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>24</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>25</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="30"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>26</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="30"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>27</v>
+      </c>
+      <c r="B35" s="44"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="45"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>28</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="30"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>29</v>
+      </c>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="30"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>30</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="30"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <v>31</v>
+      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="30"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="61">
+        <f>SUM(B9:B39)</f>
+        <v>1</v>
+      </c>
+      <c r="C40" s="61">
+        <f t="shared" ref="C40:E40" si="3">SUM(C9:C39)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="60">
+        <f>SUM(F9:F39)</f>
+        <v>1</v>
+      </c>
+      <c r="G40" s="16">
+        <f>SUM(G9:G39)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="16">
+        <f t="shared" ref="H40:L40" si="4">SUM(H9:H39)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="13"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="81"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="84"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="13"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
+      <c r="B43" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="79">
+        <v>0</v>
+      </c>
+      <c r="H43" s="85"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="13"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="70">
+        <v>1</v>
+      </c>
+      <c r="H44" s="71"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="13"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
+      <c r="B45" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="77">
+        <v>0</v>
+      </c>
+      <c r="H45" s="78"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="13"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="75">
+        <f>L40+G45</f>
+        <v>1</v>
+      </c>
+      <c r="H46" s="71"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="13"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="75">
+        <f>G43+G44-G46</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="71"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="70">
+        <v>0</v>
+      </c>
+      <c r="H48" s="71"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="72">
+        <f>G47-G48</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="73"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="36"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" s="42"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="95" orientation="portrait" horizontalDpi="360" verticalDpi="180" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="12" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+    </row>
+    <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="93"/>
+      <c r="B8" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="99"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="17">
+        <f>SUM(B9:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="46"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="15">
+        <f>SUM(G9:J9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <f>SUM(F9+K9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="17">
+        <f t="shared" ref="F10:F39" si="0">SUM(B10:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="15">
+        <f t="shared" ref="K10:K39" si="1">SUM(G10:J10)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <f t="shared" ref="L10:L39" si="2">SUM(F10+K10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>4</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>5</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>6</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>7</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>8</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>9</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>10</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>11</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>12</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>13</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>14</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>15</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>16</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>17</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>18</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>19</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>20</v>
+      </c>
+      <c r="B28" s="21">
+        <v>2</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>21</v>
+      </c>
+      <c r="B29" s="21">
+        <v>1</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G29" s="30"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>22</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="30"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>23</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="30"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>24</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>25</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="30"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>26</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="30"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>27</v>
+      </c>
+      <c r="B35" s="44"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="45"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>28</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="30"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>29</v>
+      </c>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="30"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>30</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="30"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <v>31</v>
+      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="30"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="63">
+        <f>SUM(B9:B39)</f>
+        <v>3</v>
+      </c>
+      <c r="C40" s="63">
+        <f t="shared" ref="C40:E40" si="3">SUM(C9:C39)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="62">
+        <f>SUM(F9:F39)</f>
+        <v>3</v>
+      </c>
+      <c r="G40" s="16">
+        <f>SUM(G9:G39)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="16">
+        <f t="shared" ref="H40:L40" si="4">SUM(H9:H39)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="16">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="13"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="81"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="84"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="13"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
+      <c r="B43" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="79">
+        <v>0</v>
+      </c>
+      <c r="H43" s="85"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="13"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="70">
+        <v>3</v>
+      </c>
+      <c r="H44" s="71"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="13"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
+      <c r="B45" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="77">
+        <v>0</v>
+      </c>
+      <c r="H45" s="78"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="13"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="75">
+        <f>L40+G45</f>
+        <v>3</v>
+      </c>
+      <c r="H46" s="71"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="13"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="75">
+        <f>G43+G44-G46</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="71"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="70">
+        <v>0</v>
+      </c>
+      <c r="H48" s="71"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="72">
+        <f>G47-G48</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="73"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="36"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" s="42"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="G3:L3"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="95" orientation="portrait" horizontalDpi="360" verticalDpi="180" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="12" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+    </row>
+    <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="93"/>
+      <c r="B8" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="99"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="17">
+        <f>SUM(B9:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="46"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="15">
+        <f>SUM(G9:J9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <f>SUM(F9+K9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="21">
+        <v>1</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="17">
+        <f t="shared" ref="F10:F39" si="0">SUM(B10:E10)</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="15">
+        <f t="shared" ref="K10:K39" si="1">SUM(G10:J10)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <f t="shared" ref="L10:L39" si="2">SUM(F10+K10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>4</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>5</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>6</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>7</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>8</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>9</v>
+      </c>
+      <c r="B17" s="21">
+        <v>1</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>10</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>11</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>12</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>13</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>14</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>15</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>16</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>17</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>18</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>19</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>20</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>21</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="30"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>22</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="30"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>23</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="30"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>24</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>25</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="30"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>26</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="30"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>27</v>
+      </c>
+      <c r="B35" s="44"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="45"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>28</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="30"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>29</v>
+      </c>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="30"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>30</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="30"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <v>31</v>
+      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="30"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="65">
+        <f>SUM(B9:B39)</f>
+        <v>2</v>
+      </c>
+      <c r="C40" s="65">
+        <f t="shared" ref="C40:E40" si="3">SUM(C9:C39)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="64">
+        <f>SUM(F9:F39)</f>
+        <v>2</v>
+      </c>
+      <c r="G40" s="16">
+        <f>SUM(G9:G39)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="16">
+        <f t="shared" ref="H40:L40" si="4">SUM(H9:H39)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="16">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="13"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="81"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="84"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="13"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
+      <c r="B43" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="79">
+        <v>0</v>
+      </c>
+      <c r="H43" s="85"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="13"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="70">
+        <v>2</v>
+      </c>
+      <c r="H44" s="71"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="13"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
+      <c r="B45" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="77">
+        <v>0</v>
+      </c>
+      <c r="H45" s="78"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="13"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="75">
+        <f>L40+G45</f>
+        <v>2</v>
+      </c>
+      <c r="H46" s="71"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="13"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="75">
+        <f>G43+G44-G46</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="71"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="70">
+        <v>0</v>
+      </c>
+      <c r="H48" s="71"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="72">
+        <f>G47-G48</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="73"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="36"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" s="42"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="95" orientation="portrait" horizontalDpi="360" verticalDpi="180" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Gestion Stock 2025/Gestion de Stock Robeia/Fiche de Stock Robeia 2025.xlsx
+++ b/Gestion Stock 2025/Gestion de Stock Robeia/Fiche de Stock Robeia 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suivie Pose Compteurs\Gestion Stock 2025\Gestion de Stock Robeia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3751AE26-D582-41FF-B0BE-E3405242E5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028D57BC-EAC6-40F0-9BD3-29A42D76C2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JANVIER 2025" sheetId="12" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="SEPTEMBRE 2025" sheetId="20" r:id="rId9"/>
     <sheet name="OCTOBRE 2025" sheetId="21" r:id="rId10"/>
     <sheet name="NOVEMBRE 2025" sheetId="22" r:id="rId11"/>
+    <sheet name="DECEMBRE 2025" sheetId="23" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="41">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -183,6 +184,9 @@
   </si>
   <si>
     <t>Mois de NOVEMBRE 2025</t>
+  </si>
+  <si>
+    <t>Mois de DECEMBRE 2025</t>
   </si>
 </sst>
 </file>
@@ -1037,6 +1041,68 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1071,68 +1137,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1443,6 +1447,139 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90BC331F-8E79-4349-842D-469F40C82CFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000">
+          <a:off x="5610225" y="8353425"/>
+          <a:ext cx="958850" cy="1139825"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T1" fmla="*/ 0 h 21600"/>
+            <a:gd name="T2" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T3" fmla="*/ 2147483647 h 21600"/>
+            <a:gd name="T4" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T5" fmla="*/ 2147483647 h 21600"/>
+            <a:gd name="T6" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T7" fmla="*/ 2147483647 h 21600"/>
+            <a:gd name="T8" fmla="*/ 17694720 60000 65536"/>
+            <a:gd name="T9" fmla="*/ 5898240 60000 65536"/>
+            <a:gd name="T10" fmla="*/ 5898240 60000 65536"/>
+            <a:gd name="T11" fmla="*/ 0 60000 65536"/>
+            <a:gd name="T12" fmla="*/ 12427 w 21600"/>
+            <a:gd name="T13" fmla="*/ 2912 h 21600"/>
+            <a:gd name="T14" fmla="*/ 18227 w 21600"/>
+            <a:gd name="T15" fmla="*/ 9246 h 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="T8">
+              <a:pos x="T0" y="T1"/>
+            </a:cxn>
+            <a:cxn ang="T9">
+              <a:pos x="T2" y="T3"/>
+            </a:cxn>
+            <a:cxn ang="T10">
+              <a:pos x="T4" y="T5"/>
+            </a:cxn>
+            <a:cxn ang="T11">
+              <a:pos x="T6" y="T7"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="T12" t="T13" r="T14" b="T15"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="21600" y="6079"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="15126" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="15126" y="2912"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="12427" y="2912"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="5564" y="2912"/>
+                <a:pt x="0" y="7052"/>
+                <a:pt x="0" y="12158"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="0" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="6474" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="6474" y="12158"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="6474" y="10550"/>
+                <a:pt x="9139" y="9246"/>
+                <a:pt x="12427" y="9246"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="15126" y="9246"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="15126" y="12158"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="21600" y="6079"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA704596-DF5F-46CA-AA74-1519A5F749F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2919,90 +3056,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="34"/>
       <c r="F1" s="35"/>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="34"/>
       <c r="F2" s="35"/>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="34"/>
       <c r="F3" s="35"/>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
     </row>
     <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -3014,36 +3151,36 @@
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="12"/>
       <c r="K6" s="36"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58" t="s">
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="59" t="s">
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="79" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="37" t="s">
         <v>11</v>
       </c>
@@ -3074,7 +3211,7 @@
       <c r="K8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="60"/>
+      <c r="L8" s="80"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -3913,149 +4050,1370 @@
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="61"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="62" t="s">
+      <c r="A42" s="62"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63" t="s">
+      <c r="H42" s="64"/>
+      <c r="I42" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="64"/>
+      <c r="J42" s="65"/>
       <c r="K42" s="11"/>
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67">
-        <v>0</v>
-      </c>
-      <c r="H43" s="68"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="70"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="60">
+        <v>0</v>
+      </c>
+      <c r="H43" s="66"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="68"/>
       <c r="K43" s="11"/>
       <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="71">
-        <v>0</v>
-      </c>
-      <c r="H44" s="72"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="72"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="51">
+        <v>0</v>
+      </c>
+      <c r="H44" s="52"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="52"/>
       <c r="K44" s="11"/>
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="73" t="s">
+      <c r="B45" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="74">
-        <v>0</v>
-      </c>
-      <c r="H45" s="75"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="76"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="58">
+        <v>0</v>
+      </c>
+      <c r="H45" s="59"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="61"/>
       <c r="K45" s="11"/>
       <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="77">
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="56">
         <f>L40+G45</f>
         <v>0</v>
       </c>
-      <c r="H46" s="72"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="72"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="52"/>
       <c r="K46" s="11"/>
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="77">
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="56">
         <f>G43+G44-G46</f>
         <v>0</v>
       </c>
-      <c r="H47" s="72"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="72"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="52"/>
       <c r="K47" s="11"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="71">
-        <v>0</v>
-      </c>
-      <c r="H48" s="72"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="72"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="51">
+        <v>0</v>
+      </c>
+      <c r="H48" s="52"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="52"/>
       <c r="K48" s="11"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="78">
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="53">
         <f>G47-G48</f>
         <v>0</v>
       </c>
-      <c r="H49" s="79"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="79"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="35"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" s="41"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="95" orientation="portrait" horizontalDpi="360" verticalDpi="180" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:L50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="12" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+    </row>
+    <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="74"/>
+      <c r="B8" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="80"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="17">
+        <f>SUM(B9:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="45"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="15">
+        <f>SUM(G9:J9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <f>SUM(F9+K9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="17">
+        <f t="shared" ref="F10:F39" si="0">SUM(B10:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="15">
+        <f t="shared" ref="K10:K39" si="1">SUM(G10:J10)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <f t="shared" ref="L10:L39" si="2">SUM(F10+K10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>4</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>5</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>6</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>7</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="30">
+        <v>1</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>8</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>9</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>10</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>11</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>12</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>13</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="33"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>14</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="33"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>15</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>16</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>17</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>18</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>19</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>20</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>21</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="30"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>22</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="30"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>23</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="30"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>24</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>25</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="30"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>26</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="30"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>27</v>
+      </c>
+      <c r="B35" s="43"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="44"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>28</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="30"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>29</v>
+      </c>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="30"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>30</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="30"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <v>31</v>
+      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="30"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="48">
+        <f>SUM(B9:B39)</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="48">
+        <f t="shared" ref="C40:E40" si="3">SUM(C9:C39)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="47">
+        <f>SUM(F9:F39)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="16">
+        <f>SUM(G9:G39)</f>
+        <v>1</v>
+      </c>
+      <c r="H40" s="16">
+        <f t="shared" ref="H40:L40" si="4">SUM(H9:H39)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L40" s="16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="13"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="62"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="65"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="13"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
+      <c r="B43" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="60">
+        <v>0</v>
+      </c>
+      <c r="H43" s="66"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="13"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="51">
+        <v>1</v>
+      </c>
+      <c r="H44" s="52"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="13"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
+      <c r="B45" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="58">
+        <v>0</v>
+      </c>
+      <c r="H45" s="59"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="13"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="56">
+        <f>L40+G45</f>
+        <v>1</v>
+      </c>
+      <c r="H46" s="52"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="13"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="56">
+        <f>G43+G44-G46</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="52"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="51">
+        <v>0</v>
+      </c>
+      <c r="H48" s="52"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="53">
+        <f>G47-G48</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="54"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="54"/>
       <c r="K49" s="11"/>
       <c r="L49" s="3"/>
     </row>
@@ -4123,12 +5481,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B91FFE4-DAB3-433C-9F08-C45B4FA9A1CD}">
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G45" sqref="G45:H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4138,90 +5496,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="34"/>
       <c r="F1" s="35"/>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="34"/>
       <c r="F2" s="35"/>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="34"/>
       <c r="F3" s="35"/>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
+      <c r="A5" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
     </row>
     <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -4233,36 +5591,36 @@
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="12"/>
       <c r="K6" s="36"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58" t="s">
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="59" t="s">
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="79" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="37" t="s">
         <v>11</v>
       </c>
@@ -4293,7 +5651,7 @@
       <c r="K8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="60"/>
+      <c r="L8" s="80"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -4457,19 +5815,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="30">
-        <v>1</v>
-      </c>
+      <c r="G15" s="30"/>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
       <c r="K15" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5096,7 +6452,7 @@
       </c>
       <c r="G40" s="16">
         <f>SUM(G9:G39)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="16">
         <f t="shared" ref="H40:L40" si="4">SUM(H9:H39)</f>
@@ -5112,11 +6468,11 @@
       </c>
       <c r="K40" s="16">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="16">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5134,149 +6490,149 @@
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="61"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="62" t="s">
+      <c r="A42" s="62"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63" t="s">
+      <c r="H42" s="64"/>
+      <c r="I42" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="64"/>
+      <c r="J42" s="65"/>
       <c r="K42" s="11"/>
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67">
-        <v>0</v>
-      </c>
-      <c r="H43" s="68"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="70"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="60">
+        <v>0</v>
+      </c>
+      <c r="H43" s="66"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="68"/>
       <c r="K43" s="11"/>
       <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="71">
-        <v>1</v>
-      </c>
-      <c r="H44" s="72"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="72"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="51">
+        <v>0</v>
+      </c>
+      <c r="H44" s="52"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="52"/>
       <c r="K44" s="11"/>
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="73" t="s">
+      <c r="B45" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="74">
-        <v>0</v>
-      </c>
-      <c r="H45" s="75"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="76"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="58">
+        <v>0</v>
+      </c>
+      <c r="H45" s="59"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="61"/>
       <c r="K45" s="11"/>
       <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="77">
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="56">
         <f>L40+G45</f>
-        <v>1</v>
-      </c>
-      <c r="H46" s="72"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="72"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="52"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="52"/>
       <c r="K46" s="11"/>
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="77">
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="56">
         <f>G43+G44-G46</f>
         <v>0</v>
       </c>
-      <c r="H47" s="72"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="72"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="52"/>
       <c r="K47" s="11"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="71">
-        <v>0</v>
-      </c>
-      <c r="H48" s="72"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="72"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="51">
+        <v>0</v>
+      </c>
+      <c r="H48" s="52"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="52"/>
       <c r="K48" s="11"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="78">
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="53">
         <f>G47-G48</f>
         <v>0</v>
       </c>
-      <c r="H49" s="79"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="79"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="54"/>
       <c r="K49" s="11"/>
       <c r="L49" s="3"/>
     </row>
@@ -5344,12 +6700,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B91FFE4-DAB3-433C-9F08-C45B4FA9A1CD}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9034A5-EAA6-4E21-AB7B-AC27411BD0C1}">
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45:H45"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5359,90 +6715,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="34"/>
       <c r="F1" s="35"/>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="34"/>
       <c r="F2" s="35"/>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="34"/>
       <c r="F3" s="35"/>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
+      <c r="A5" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
     </row>
     <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -5454,36 +6810,36 @@
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="12"/>
       <c r="K6" s="36"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58" t="s">
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="59" t="s">
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="79" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="37" t="s">
         <v>11</v>
       </c>
@@ -5514,7 +6870,7 @@
       <c r="K8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="60"/>
+      <c r="L8" s="80"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -6353,149 +7709,149 @@
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="61"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="62" t="s">
+      <c r="A42" s="62"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63" t="s">
+      <c r="H42" s="64"/>
+      <c r="I42" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="64"/>
+      <c r="J42" s="65"/>
       <c r="K42" s="11"/>
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67">
-        <v>0</v>
-      </c>
-      <c r="H43" s="68"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="70"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="60">
+        <v>0</v>
+      </c>
+      <c r="H43" s="66"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="68"/>
       <c r="K43" s="11"/>
       <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="71">
-        <v>0</v>
-      </c>
-      <c r="H44" s="72"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="72"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="51">
+        <v>0</v>
+      </c>
+      <c r="H44" s="52"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="52"/>
       <c r="K44" s="11"/>
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="73" t="s">
+      <c r="B45" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="74">
-        <v>0</v>
-      </c>
-      <c r="H45" s="75"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="76"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="58">
+        <v>0</v>
+      </c>
+      <c r="H45" s="59"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="61"/>
       <c r="K45" s="11"/>
       <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="77">
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="56">
         <f>L40+G45</f>
         <v>0</v>
       </c>
-      <c r="H46" s="72"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="72"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="52"/>
       <c r="K46" s="11"/>
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="77">
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="56">
         <f>G43+G44-G46</f>
         <v>0</v>
       </c>
-      <c r="H47" s="72"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="72"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="52"/>
       <c r="K47" s="11"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="71">
-        <v>0</v>
-      </c>
-      <c r="H48" s="72"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="72"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="51">
+        <v>0</v>
+      </c>
+      <c r="H48" s="52"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="52"/>
       <c r="K48" s="11"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="78">
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="53">
         <f>G47-G48</f>
         <v>0</v>
       </c>
-      <c r="H49" s="79"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="79"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="54"/>
       <c r="K49" s="11"/>
       <c r="L49" s="3"/>
     </row>
@@ -6578,90 +7934,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="34"/>
       <c r="F1" s="35"/>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="34"/>
       <c r="F2" s="35"/>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="34"/>
       <c r="F3" s="35"/>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
     </row>
     <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -6673,36 +8029,36 @@
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="12"/>
       <c r="K6" s="36"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58" t="s">
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="59" t="s">
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="79" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="37" t="s">
         <v>11</v>
       </c>
@@ -6733,7 +8089,7 @@
       <c r="K8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="60"/>
+      <c r="L8" s="80"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -7574,149 +8930,1368 @@
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="61"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="62" t="s">
+      <c r="A42" s="62"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63" t="s">
+      <c r="H42" s="64"/>
+      <c r="I42" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="64"/>
+      <c r="J42" s="65"/>
       <c r="K42" s="11"/>
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67">
-        <v>0</v>
-      </c>
-      <c r="H43" s="68"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="70"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="60">
+        <v>0</v>
+      </c>
+      <c r="H43" s="66"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="68"/>
       <c r="K43" s="11"/>
       <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="71">
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="51">
         <v>1</v>
       </c>
-      <c r="H44" s="72"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="72"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="52"/>
       <c r="K44" s="11"/>
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="73" t="s">
+      <c r="B45" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="74">
-        <v>0</v>
-      </c>
-      <c r="H45" s="75"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="76"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="58">
+        <v>0</v>
+      </c>
+      <c r="H45" s="59"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="61"/>
       <c r="K45" s="11"/>
       <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="77">
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="56">
         <f>L40+G45</f>
         <v>1</v>
       </c>
-      <c r="H46" s="72"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="72"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="52"/>
       <c r="K46" s="11"/>
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="77">
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="56">
         <f>G43+G44-G46</f>
         <v>0</v>
       </c>
-      <c r="H47" s="72"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="72"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="52"/>
       <c r="K47" s="11"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="71">
-        <v>0</v>
-      </c>
-      <c r="H48" s="72"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="72"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="51">
+        <v>0</v>
+      </c>
+      <c r="H48" s="52"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="52"/>
       <c r="K48" s="11"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="78">
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="53">
         <f>G47-G48</f>
         <v>0</v>
       </c>
-      <c r="H49" s="79"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="79"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="35"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" s="41"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="G3:L3"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="95" orientation="portrait" horizontalDpi="360" verticalDpi="180" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45:H45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="12" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+    </row>
+    <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="74"/>
+      <c r="B8" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="80"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="17">
+        <f>SUM(B9:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="45"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="15">
+        <f>SUM(G9:J9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <f>SUM(F9+K9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="17">
+        <f t="shared" ref="F10:F39" si="0">SUM(B10:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="15">
+        <f t="shared" ref="K10:K39" si="1">SUM(G10:J10)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <f t="shared" ref="L10:L39" si="2">SUM(F10+K10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>4</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>5</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>6</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>7</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>8</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>9</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>10</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>11</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>12</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>13</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="33"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>14</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="33"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>15</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>16</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>17</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>18</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>19</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>20</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>21</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="30"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>22</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="30"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>23</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="30"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>24</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>25</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="30"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>26</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="30"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>27</v>
+      </c>
+      <c r="B35" s="43"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="44"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>28</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="30"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>29</v>
+      </c>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="30"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>30</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="30"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <v>31</v>
+      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="30"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="48">
+        <f>SUM(B9:B39)</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="48">
+        <f t="shared" ref="C40:E40" si="3">SUM(C9:C39)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="47">
+        <f>SUM(F9:F39)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="16">
+        <f>SUM(G9:G39)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="16">
+        <f t="shared" ref="H40:L40" si="4">SUM(H9:H39)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="13"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="62"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="65"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="13"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
+      <c r="B43" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="60">
+        <v>0</v>
+      </c>
+      <c r="H43" s="66"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="13"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="51">
+        <v>0</v>
+      </c>
+      <c r="H44" s="52"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="13"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
+      <c r="B45" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="58">
+        <v>0</v>
+      </c>
+      <c r="H45" s="59"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="13"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="56">
+        <f>L40+G45</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="52"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="13"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="56">
+        <f>G43+G44-G46</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="52"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="51">
+        <v>0</v>
+      </c>
+      <c r="H48" s="52"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="53">
+        <f>G47-G48</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="54"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="54"/>
       <c r="K49" s="11"/>
       <c r="L49" s="3"/>
     </row>
@@ -7784,11 +10359,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="G45" sqref="G45:H45"/>
     </sheetView>
   </sheetViews>
@@ -7799,90 +10374,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="34"/>
       <c r="F1" s="35"/>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="34"/>
       <c r="F2" s="35"/>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="34"/>
       <c r="F3" s="35"/>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
+      <c r="A5" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
     </row>
     <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -7894,36 +10469,36 @@
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="12"/>
       <c r="K6" s="36"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58" t="s">
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="59" t="s">
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="79" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="37" t="s">
         <v>11</v>
       </c>
@@ -7954,7 +10529,7 @@
       <c r="K8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="60"/>
+      <c r="L8" s="80"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -8161,12 +10736,14 @@
         <v>9</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
+      <c r="C17" s="25">
+        <v>1</v>
+      </c>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
       <c r="F17" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="30"/>
       <c r="H17" s="22"/>
@@ -8178,7 +10755,7 @@
       </c>
       <c r="L17" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8739,7 +11316,7 @@
       </c>
       <c r="C40" s="48">
         <f t="shared" ref="C40:E40" si="3">SUM(C9:C39)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="48">
         <f t="shared" si="3"/>
@@ -8751,7 +11328,7 @@
       </c>
       <c r="F40" s="47">
         <f>SUM(F9:F39)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="16">
         <f>SUM(G9:G39)</f>
@@ -8775,7 +11352,7 @@
       </c>
       <c r="L40" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8793,149 +11370,149 @@
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="61"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="62" t="s">
+      <c r="A42" s="62"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63" t="s">
+      <c r="H42" s="64"/>
+      <c r="I42" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="64"/>
+      <c r="J42" s="65"/>
       <c r="K42" s="11"/>
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67">
-        <v>0</v>
-      </c>
-      <c r="H43" s="68"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="70"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="60">
+        <v>0</v>
+      </c>
+      <c r="H43" s="66"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="68"/>
       <c r="K43" s="11"/>
       <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="71">
-        <v>0</v>
-      </c>
-      <c r="H44" s="72"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="72"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="51">
+        <v>1</v>
+      </c>
+      <c r="H44" s="52"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="52"/>
       <c r="K44" s="11"/>
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="73" t="s">
+      <c r="B45" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="74">
-        <v>0</v>
-      </c>
-      <c r="H45" s="75"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="76"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="58">
+        <v>0</v>
+      </c>
+      <c r="H45" s="59"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="61"/>
       <c r="K45" s="11"/>
       <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="77">
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="56">
         <f>L40+G45</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="72"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="72"/>
+        <v>1</v>
+      </c>
+      <c r="H46" s="52"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="52"/>
       <c r="K46" s="11"/>
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="77">
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="56">
         <f>G43+G44-G46</f>
         <v>0</v>
       </c>
-      <c r="H47" s="72"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="72"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="52"/>
       <c r="K47" s="11"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="71">
-        <v>0</v>
-      </c>
-      <c r="H48" s="72"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="72"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="51">
+        <v>0</v>
+      </c>
+      <c r="H48" s="52"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="52"/>
       <c r="K48" s="11"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="78">
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="53">
         <f>G47-G48</f>
         <v>0</v>
       </c>
-      <c r="H49" s="79"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="79"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="54"/>
       <c r="K49" s="11"/>
       <c r="L49" s="3"/>
     </row>
@@ -9003,11 +11580,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="G45" sqref="G45:H45"/>
     </sheetView>
   </sheetViews>
@@ -9018,90 +11595,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="34"/>
       <c r="F1" s="35"/>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="34"/>
       <c r="F2" s="35"/>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="34"/>
       <c r="F3" s="35"/>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
+      <c r="A5" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
     </row>
     <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -9113,36 +11690,36 @@
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="12"/>
       <c r="K6" s="36"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58" t="s">
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="59" t="s">
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="79" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="37" t="s">
         <v>11</v>
       </c>
@@ -9173,7 +11750,7 @@
       <c r="K8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="60"/>
+      <c r="L8" s="80"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -9380,14 +11957,12 @@
         <v>9</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="25">
-        <v>1</v>
-      </c>
+      <c r="C17" s="25"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
       <c r="F17" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="30"/>
       <c r="H17" s="22"/>
@@ -9399,7 +11974,7 @@
       </c>
       <c r="L17" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9960,7 +12535,7 @@
       </c>
       <c r="C40" s="48">
         <f t="shared" ref="C40:E40" si="3">SUM(C9:C39)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="48">
         <f t="shared" si="3"/>
@@ -9972,7 +12547,7 @@
       </c>
       <c r="F40" s="47">
         <f>SUM(F9:F39)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="16">
         <f>SUM(G9:G39)</f>
@@ -9996,7 +12571,7 @@
       </c>
       <c r="L40" s="16">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10014,149 +12589,149 @@
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="61"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="62" t="s">
+      <c r="A42" s="62"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63" t="s">
+      <c r="H42" s="64"/>
+      <c r="I42" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="64"/>
+      <c r="J42" s="65"/>
       <c r="K42" s="11"/>
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67">
-        <v>0</v>
-      </c>
-      <c r="H43" s="68"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="70"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="60">
+        <v>0</v>
+      </c>
+      <c r="H43" s="66"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="68"/>
       <c r="K43" s="11"/>
       <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="71">
-        <v>1</v>
-      </c>
-      <c r="H44" s="72"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="72"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="51">
+        <v>0</v>
+      </c>
+      <c r="H44" s="52"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="52"/>
       <c r="K44" s="11"/>
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="73" t="s">
+      <c r="B45" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="74">
-        <v>0</v>
-      </c>
-      <c r="H45" s="75"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="76"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="58">
+        <v>0</v>
+      </c>
+      <c r="H45" s="59"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="61"/>
       <c r="K45" s="11"/>
       <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="77">
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="56">
         <f>L40+G45</f>
-        <v>1</v>
-      </c>
-      <c r="H46" s="72"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="72"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="52"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="52"/>
       <c r="K46" s="11"/>
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="77">
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="56">
         <f>G43+G44-G46</f>
         <v>0</v>
       </c>
-      <c r="H47" s="72"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="72"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="52"/>
       <c r="K47" s="11"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="71">
-        <v>0</v>
-      </c>
-      <c r="H48" s="72"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="72"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="51">
+        <v>0</v>
+      </c>
+      <c r="H48" s="52"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="52"/>
       <c r="K48" s="11"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="78">
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="53">
         <f>G47-G48</f>
         <v>0</v>
       </c>
-      <c r="H49" s="79"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="79"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="54"/>
       <c r="K49" s="11"/>
       <c r="L49" s="3"/>
     </row>
@@ -10224,11 +12799,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G45" sqref="G45:H45"/>
     </sheetView>
   </sheetViews>
@@ -10239,90 +12814,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="34"/>
       <c r="F1" s="35"/>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="34"/>
       <c r="F2" s="35"/>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="34"/>
       <c r="F3" s="35"/>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
+      <c r="A5" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
     </row>
     <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -10334,36 +12909,36 @@
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="12"/>
       <c r="K6" s="36"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58" t="s">
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="59" t="s">
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="79" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="37" t="s">
         <v>11</v>
       </c>
@@ -10394,7 +12969,7 @@
       <c r="K8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="60"/>
+      <c r="L8" s="80"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -11125,13 +13700,15 @@
       <c r="A38" s="8">
         <v>30</v>
       </c>
-      <c r="B38" s="21"/>
+      <c r="B38" s="21">
+        <v>1</v>
+      </c>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="23"/>
       <c r="F38" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="30"/>
       <c r="H38" s="22"/>
@@ -11143,7 +13720,7 @@
       </c>
       <c r="L38" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11175,7 +13752,7 @@
       <c r="A40" s="10"/>
       <c r="B40" s="48">
         <f>SUM(B9:B39)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="48">
         <f t="shared" ref="C40:E40" si="3">SUM(C9:C39)</f>
@@ -11191,7 +13768,7 @@
       </c>
       <c r="F40" s="47">
         <f>SUM(F9:F39)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="16">
         <f>SUM(G9:G39)</f>
@@ -11215,7 +13792,7 @@
       </c>
       <c r="L40" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11233,149 +13810,149 @@
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="61"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="62" t="s">
+      <c r="A42" s="62"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63" t="s">
+      <c r="H42" s="64"/>
+      <c r="I42" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="64"/>
+      <c r="J42" s="65"/>
       <c r="K42" s="11"/>
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67">
-        <v>0</v>
-      </c>
-      <c r="H43" s="68"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="70"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="60">
+        <v>0</v>
+      </c>
+      <c r="H43" s="66"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="68"/>
       <c r="K43" s="11"/>
       <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="71">
-        <v>0</v>
-      </c>
-      <c r="H44" s="72"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="72"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="51">
+        <v>1</v>
+      </c>
+      <c r="H44" s="52"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="52"/>
       <c r="K44" s="11"/>
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="73" t="s">
+      <c r="B45" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="74">
-        <v>0</v>
-      </c>
-      <c r="H45" s="75"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="76"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="58">
+        <v>0</v>
+      </c>
+      <c r="H45" s="59"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="61"/>
       <c r="K45" s="11"/>
       <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="77">
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="56">
         <f>L40+G45</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="72"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="72"/>
+        <v>1</v>
+      </c>
+      <c r="H46" s="52"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="52"/>
       <c r="K46" s="11"/>
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="77">
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="56">
         <f>G43+G44-G46</f>
         <v>0</v>
       </c>
-      <c r="H47" s="72"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="72"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="52"/>
       <c r="K47" s="11"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="71">
-        <v>0</v>
-      </c>
-      <c r="H48" s="72"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="72"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="51">
+        <v>0</v>
+      </c>
+      <c r="H48" s="52"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="52"/>
       <c r="K48" s="11"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="78">
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="53">
         <f>G47-G48</f>
         <v>0</v>
       </c>
-      <c r="H49" s="79"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="79"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="54"/>
       <c r="K49" s="11"/>
       <c r="L49" s="3"/>
     </row>
@@ -11443,12 +14020,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45:H45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11458,90 +14035,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="34"/>
       <c r="F1" s="35"/>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="34"/>
       <c r="F2" s="35"/>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="34"/>
       <c r="F3" s="35"/>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
+      <c r="A5" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
     </row>
     <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -11553,36 +14130,36 @@
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="12"/>
       <c r="K6" s="36"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58" t="s">
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="59" t="s">
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="79" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="37" t="s">
         <v>11</v>
       </c>
@@ -11613,7 +14190,7 @@
       <c r="K8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="60"/>
+      <c r="L8" s="80"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -11819,13 +14396,15 @@
       <c r="A17" s="8">
         <v>9</v>
       </c>
-      <c r="B17" s="21"/>
+      <c r="B17" s="21">
+        <v>1</v>
+      </c>
       <c r="C17" s="25"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
       <c r="F17" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="30"/>
       <c r="H17" s="22"/>
@@ -11837,7 +14416,7 @@
       </c>
       <c r="L17" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12344,15 +14923,13 @@
       <c r="A38" s="8">
         <v>30</v>
       </c>
-      <c r="B38" s="21">
-        <v>1</v>
-      </c>
+      <c r="B38" s="21"/>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="23"/>
       <c r="F38" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="30"/>
       <c r="H38" s="22"/>
@@ -12364,7 +14941,7 @@
       </c>
       <c r="L38" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12454,149 +15031,149 @@
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="61"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="62" t="s">
+      <c r="A42" s="62"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63" t="s">
+      <c r="H42" s="64"/>
+      <c r="I42" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="64"/>
+      <c r="J42" s="65"/>
       <c r="K42" s="11"/>
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67">
-        <v>0</v>
-      </c>
-      <c r="H43" s="68"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="70"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="60">
+        <v>0</v>
+      </c>
+      <c r="H43" s="66"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="68"/>
       <c r="K43" s="11"/>
       <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="71">
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="51">
         <v>1</v>
       </c>
-      <c r="H44" s="72"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="72"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="52"/>
       <c r="K44" s="11"/>
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="73" t="s">
+      <c r="B45" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="74">
-        <v>0</v>
-      </c>
-      <c r="H45" s="75"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="76"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="58">
+        <v>0</v>
+      </c>
+      <c r="H45" s="59"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="61"/>
       <c r="K45" s="11"/>
       <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="77">
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="56">
         <f>L40+G45</f>
         <v>1</v>
       </c>
-      <c r="H46" s="72"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="72"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="52"/>
       <c r="K46" s="11"/>
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="77">
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="56">
         <f>G43+G44-G46</f>
         <v>0</v>
       </c>
-      <c r="H47" s="72"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="72"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="52"/>
       <c r="K47" s="11"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="71">
-        <v>0</v>
-      </c>
-      <c r="H48" s="72"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="72"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="51">
+        <v>0</v>
+      </c>
+      <c r="H48" s="52"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="52"/>
       <c r="K48" s="11"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="78">
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="53">
         <f>G47-G48</f>
         <v>0</v>
       </c>
-      <c r="H49" s="79"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="79"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="54"/>
       <c r="K49" s="11"/>
       <c r="L49" s="3"/>
     </row>
@@ -12664,12 +15241,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12679,90 +15256,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="34"/>
       <c r="F1" s="35"/>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="34"/>
       <c r="F2" s="35"/>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="34"/>
       <c r="F3" s="35"/>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
+      <c r="A5" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
     </row>
     <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -12774,36 +15351,36 @@
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="12"/>
       <c r="K6" s="36"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58" t="s">
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="59" t="s">
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="79" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="37" t="s">
         <v>11</v>
       </c>
@@ -12834,7 +15411,7 @@
       <c r="K8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="60"/>
+      <c r="L8" s="80"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -13040,15 +15617,13 @@
       <c r="A17" s="8">
         <v>9</v>
       </c>
-      <c r="B17" s="21">
-        <v>1</v>
-      </c>
+      <c r="B17" s="21"/>
       <c r="C17" s="25"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
       <c r="F17" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="30"/>
       <c r="H17" s="22"/>
@@ -13060,7 +15635,7 @@
       </c>
       <c r="L17" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13317,13 +15892,15 @@
       <c r="A28" s="8">
         <v>20</v>
       </c>
-      <c r="B28" s="21"/>
+      <c r="B28" s="21">
+        <v>2</v>
+      </c>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="23"/>
       <c r="F28" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G28" s="30"/>
       <c r="H28" s="22"/>
@@ -13335,20 +15912,22 @@
       </c>
       <c r="L28" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>21</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="21">
+        <v>1</v>
+      </c>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="23"/>
       <c r="F29" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="30"/>
       <c r="H29" s="22"/>
@@ -13360,7 +15939,7 @@
       </c>
       <c r="L29" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13617,7 +16196,7 @@
       <c r="A40" s="10"/>
       <c r="B40" s="48">
         <f>SUM(B9:B39)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40" s="48">
         <f t="shared" ref="C40:E40" si="3">SUM(C9:C39)</f>
@@ -13633,7 +16212,7 @@
       </c>
       <c r="F40" s="47">
         <f>SUM(F9:F39)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G40" s="16">
         <f>SUM(G9:G39)</f>
@@ -13657,7 +16236,7 @@
       </c>
       <c r="L40" s="16">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13675,149 +16254,149 @@
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="61"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="62" t="s">
+      <c r="A42" s="62"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63" t="s">
+      <c r="H42" s="64"/>
+      <c r="I42" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="64"/>
+      <c r="J42" s="65"/>
       <c r="K42" s="11"/>
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67">
-        <v>0</v>
-      </c>
-      <c r="H43" s="68"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="70"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="60">
+        <v>0</v>
+      </c>
+      <c r="H43" s="66"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="68"/>
       <c r="K43" s="11"/>
       <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="71">
-        <v>1</v>
-      </c>
-      <c r="H44" s="72"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="72"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="51">
+        <v>3</v>
+      </c>
+      <c r="H44" s="52"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="52"/>
       <c r="K44" s="11"/>
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="73" t="s">
+      <c r="B45" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="74">
-        <v>0</v>
-      </c>
-      <c r="H45" s="75"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="76"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="58">
+        <v>0</v>
+      </c>
+      <c r="H45" s="59"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="61"/>
       <c r="K45" s="11"/>
       <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="77">
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="56">
         <f>L40+G45</f>
-        <v>1</v>
-      </c>
-      <c r="H46" s="72"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="72"/>
+        <v>3</v>
+      </c>
+      <c r="H46" s="52"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="52"/>
       <c r="K46" s="11"/>
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="77">
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="56">
         <f>G43+G44-G46</f>
         <v>0</v>
       </c>
-      <c r="H47" s="72"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="72"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="52"/>
       <c r="K47" s="11"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="71">
-        <v>0</v>
-      </c>
-      <c r="H48" s="72"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="72"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="51">
+        <v>0</v>
+      </c>
+      <c r="H48" s="52"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="52"/>
       <c r="K48" s="11"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="78">
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="53">
         <f>G47-G48</f>
         <v>0</v>
       </c>
-      <c r="H49" s="79"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="79"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="54"/>
       <c r="K49" s="11"/>
       <c r="L49" s="3"/>
     </row>
@@ -13885,12 +16464,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13900,90 +16479,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="34"/>
       <c r="F1" s="35"/>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="34"/>
       <c r="F2" s="35"/>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="34"/>
       <c r="F3" s="35"/>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
+      <c r="A5" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
     </row>
     <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -13995,36 +16574,36 @@
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="12"/>
       <c r="K6" s="36"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58" t="s">
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="59" t="s">
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="79" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="37" t="s">
         <v>11</v>
       </c>
@@ -14055,7 +16634,7 @@
       <c r="K8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="60"/>
+      <c r="L8" s="80"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -14086,13 +16665,15 @@
       <c r="A10" s="8">
         <v>2</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="21">
+        <v>1</v>
+      </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="23"/>
       <c r="F10" s="17">
         <f t="shared" ref="F10:F39" si="0">SUM(B10:E10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="30"/>
       <c r="H10" s="22"/>
@@ -14104,7 +16685,7 @@
       </c>
       <c r="L10" s="7">
         <f t="shared" ref="L10:L39" si="2">SUM(F10+K10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14261,13 +16842,15 @@
       <c r="A17" s="8">
         <v>9</v>
       </c>
-      <c r="B17" s="21"/>
+      <c r="B17" s="21">
+        <v>1</v>
+      </c>
       <c r="C17" s="25"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
       <c r="F17" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="30"/>
       <c r="H17" s="22"/>
@@ -14279,7 +16862,7 @@
       </c>
       <c r="L17" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14536,15 +17119,13 @@
       <c r="A28" s="8">
         <v>20</v>
       </c>
-      <c r="B28" s="21">
-        <v>2</v>
-      </c>
+      <c r="B28" s="21"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="23"/>
       <c r="F28" s="17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28" s="30"/>
       <c r="H28" s="22"/>
@@ -14556,22 +17137,20 @@
       </c>
       <c r="L28" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>21</v>
       </c>
-      <c r="B29" s="21">
-        <v>1</v>
-      </c>
+      <c r="B29" s="21"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="23"/>
       <c r="F29" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="30"/>
       <c r="H29" s="22"/>
@@ -14583,7 +17162,7 @@
       </c>
       <c r="L29" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14840,7 +17419,7 @@
       <c r="A40" s="10"/>
       <c r="B40" s="48">
         <f>SUM(B9:B39)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" s="48">
         <f t="shared" ref="C40:E40" si="3">SUM(C9:C39)</f>
@@ -14856,7 +17435,7 @@
       </c>
       <c r="F40" s="47">
         <f>SUM(F9:F39)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G40" s="16">
         <f>SUM(G9:G39)</f>
@@ -14880,7 +17459,7 @@
       </c>
       <c r="L40" s="16">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14898,149 +17477,149 @@
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="61"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="62" t="s">
+      <c r="A42" s="62"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63" t="s">
+      <c r="H42" s="64"/>
+      <c r="I42" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="64"/>
+      <c r="J42" s="65"/>
       <c r="K42" s="11"/>
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67">
-        <v>0</v>
-      </c>
-      <c r="H43" s="68"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="70"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="60">
+        <v>0</v>
+      </c>
+      <c r="H43" s="66"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="68"/>
       <c r="K43" s="11"/>
       <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="71">
-        <v>3</v>
-      </c>
-      <c r="H44" s="72"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="72"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="51">
+        <v>2</v>
+      </c>
+      <c r="H44" s="52"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="52"/>
       <c r="K44" s="11"/>
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="73" t="s">
+      <c r="B45" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="74">
-        <v>0</v>
-      </c>
-      <c r="H45" s="75"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="76"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="58">
+        <v>0</v>
+      </c>
+      <c r="H45" s="59"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="61"/>
       <c r="K45" s="11"/>
       <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="77">
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="56">
         <f>L40+G45</f>
-        <v>3</v>
-      </c>
-      <c r="H46" s="72"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="72"/>
+        <v>2</v>
+      </c>
+      <c r="H46" s="52"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="52"/>
       <c r="K46" s="11"/>
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="77">
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="56">
         <f>G43+G44-G46</f>
         <v>0</v>
       </c>
-      <c r="H47" s="72"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="72"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="52"/>
       <c r="K47" s="11"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="71">
-        <v>0</v>
-      </c>
-      <c r="H48" s="72"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="72"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="51">
+        <v>0</v>
+      </c>
+      <c r="H48" s="52"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="52"/>
       <c r="K48" s="11"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="78">
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="53">
         <f>G47-G48</f>
         <v>0</v>
       </c>
-      <c r="H49" s="79"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="79"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="54"/>
       <c r="K49" s="11"/>
       <c r="L49" s="3"/>
     </row>
@@ -15106,1227 +17685,4 @@
   <pageSetup scale="95" orientation="portrait" horizontalDpi="360" verticalDpi="180" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:L50"/>
-  <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:B29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="12" width="8.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-    </row>
-    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-    </row>
-    <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="59" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="60"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>1</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="17">
-        <f>SUM(B9:E9)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="15">
-        <f>SUM(G9:J9)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="7">
-        <f>SUM(F9+K9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>2</v>
-      </c>
-      <c r="B10" s="21">
-        <v>1</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="17">
-        <f t="shared" ref="F10:F39" si="0">SUM(B10:E10)</f>
-        <v>1</v>
-      </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="15">
-        <f t="shared" ref="K10:K39" si="1">SUM(G10:J10)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
-        <f t="shared" ref="L10:L39" si="2">SUM(F10+K10)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>3</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>4</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>5</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>6</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>7</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>8</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>9</v>
-      </c>
-      <c r="B17" s="21">
-        <v>1</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>10</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>11</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>12</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>13</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>14</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>15</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>16</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <v>17</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>18</v>
-      </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
-        <v>19</v>
-      </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
-        <v>20</v>
-      </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
-        <v>21</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
-        <v>22</v>
-      </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
-        <v>23</v>
-      </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
-        <v>24</v>
-      </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
-        <v>25</v>
-      </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
-        <v>26</v>
-      </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
-        <v>27</v>
-      </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="44"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8">
-        <v>28</v>
-      </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="30"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8">
-        <v>29</v>
-      </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="30"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8">
-        <v>30</v>
-      </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="30"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9">
-        <v>31</v>
-      </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="30"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="48">
-        <f>SUM(B9:B39)</f>
-        <v>2</v>
-      </c>
-      <c r="C40" s="48">
-        <f t="shared" ref="C40:E40" si="3">SUM(C9:C39)</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="47">
-        <f>SUM(F9:F39)</f>
-        <v>2</v>
-      </c>
-      <c r="G40" s="16">
-        <f>SUM(G9:G39)</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="16">
-        <f t="shared" ref="H40:L40" si="4">SUM(H9:H39)</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="16">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="13"/>
-    </row>
-    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="61"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="J42" s="64"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="13"/>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
-      <c r="B43" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67">
-        <v>0</v>
-      </c>
-      <c r="H43" s="68"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="13"/>
-    </row>
-    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
-      <c r="B44" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="71">
-        <v>2</v>
-      </c>
-      <c r="H44" s="72"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="13"/>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
-      <c r="B45" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="74">
-        <v>0</v>
-      </c>
-      <c r="H45" s="75"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="76"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="13"/>
-    </row>
-    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
-      <c r="B46" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="77">
-        <f>L40+G45</f>
-        <v>2</v>
-      </c>
-      <c r="H46" s="72"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="13"/>
-    </row>
-    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="77">
-        <f>G43+G44-G46</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="72"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="72"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="71">
-        <v>0</v>
-      </c>
-      <c r="H48" s="72"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
-      <c r="B49" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="78">
-        <f>G47-G48</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="79"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="79"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="35"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="J50" s="41"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="G3:L3"/>
-  </mergeCells>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="95" orientation="portrait" horizontalDpi="360" verticalDpi="180" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>